--- a/data/テンプレート.xlsx
+++ b/data/テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67dda3629f5e0d3a/デスクトップ/給与明細作成/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Development\kyosin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_38792FB41BA20DA8D10B55AB57C60537FFB2D5F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B7186D-8CF6-4D8F-9C88-BBC1CA449A76}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DDEDF1-2AD9-4A02-A721-803EECFC80D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="66" r:id="rId1"/>
@@ -19,11 +19,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$W$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>交通費差額の合計</t>
     <rPh sb="0" eb="3">
@@ -121,42 +132,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>交通費　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（該当欄に○、差額は金額と理由説明）</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>コウツウヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サガク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>差額</t>
     <rPh sb="0" eb="2">
       <t>サガク</t>
@@ -200,22 +175,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チョウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>下記の表Ａ・Ｂを参照して記入</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -320,16 +279,6 @@
     <t>15  日支給分</t>
   </si>
   <si>
-    <t>支給額</t>
-    <rPh sb="0" eb="2">
-      <t>シキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>円</t>
     <rPh sb="0" eb="1">
       <t>エン</t>
@@ -416,25 +365,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>深夜勤務手当て金額
-[円]</t>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>超過勤務手当て金額
-[円]</t>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>合　　計
 [分]</t>
     <rPh sb="0" eb="4">
@@ -470,6 +400,63 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>キョウシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考欄</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費　　（該当欄に○、差額は金額と理由説明）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>源泉</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←合計額が20万円を超える場合は手打ち</t>
+    <rPh sb="1" eb="4">
+      <t>ゴウケイガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -579,12 +566,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -686,21 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1221,19 +1193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1281,6 +1240,297 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1288,15 +1538,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1304,31 +1548,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1336,168 +1581,179 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,10 +1762,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,50 +1771,72 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2794,13 +3069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>2268</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>12020</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19026</xdr:rowOff>
@@ -3183,27 +3458,28 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F44" sqref="F44"/>
       <selection pane="topRight" activeCell="F44" sqref="F44"/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
-      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="16" width="14.453125" customWidth="1"/>
-    <col min="17" max="17" width="5.08984375" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
-    <col min="19" max="19" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3212,1983 +3488,1795 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>COUNTIF(D10:J40,"80")</f>
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51">
-        <v>2018</v>
-      </c>
-      <c r="G2" s="52" t="s">
+      <c r="J2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="52" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="49">
+        <f>ROUNDDOWN(SUM(K41:N41)+M6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="65">
-        <f>ROUNDDOWN(SUM(K41:L41)+N41+P41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="52"/>
+      <c r="O2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="42"/>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
     </row>
-    <row r="3" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>IF(A1+A2=217,"OK","NG")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="15"/>
+    <row r="4" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="49">
+        <f>M2-P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="78" t="s">
-        <v>39</v>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="128"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="55">
-        <f>R41</f>
+        <v>35</v>
+      </c>
+      <c r="M5" s="63">
+        <f>P41</f>
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
+        <v>21</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="42" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="42">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U7" s="18"/>
-      <c r="AB7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="1:28" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="109" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="H9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="58" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="27" t="s">
+      <c r="M9" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="66" t="str">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="50" t="str">
         <f t="shared" ref="C10:C40" si="0">IF(COUNTA(D10:J10)&gt;0,"○","")</f>
         <v/>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="29">
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="23">
         <f t="shared" ref="K10:K40" si="1">SUM(D10:J10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="72">
         <f t="shared" ref="L10:L40" si="2">COUNTA(D10:J10)*30</f>
         <v>0</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="88">
         <f t="shared" ref="M10:M40" si="3">IF(AND(COUNTA(H10)=1,COUNTA(D10:H10)&gt;=3),IF(COUNTA(D10:H10)=3,15,IF(COUNTA(D10:H10)=4,35,IF(COUNTA(D10:H10)=5,55,IF(COUNTA(D10:H10)=6,75,IF(COUNTA(D10:H10)=7,95,0))))),0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="89">
         <f t="shared" ref="N10:N40" si="4">IF(M10=15,45,IF(M10=35,105,IF(M10=55,165,IF(M10=75,225,IF(M10=95,285,0)))))</f>
         <v>0</v>
       </c>
-      <c r="O10" s="60">
-        <f t="shared" ref="O10:O40" si="5">IF(COUNTA(D10:J10)=5,70,IF(COUNTA(D10:J10)=6,180,IF(COUNTA(D10:J10)=7,290,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="31">
-        <f t="shared" ref="P10:P40" si="6">IF(O10=30,90,IF(O10=70,210,IF(O10=140,449,IF(O10=180,616,IF(O10=250,873,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="O10" s="3">
         <v>1</v>
       </c>
-      <c r="R10" s="77" t="str">
+      <c r="P10" s="75" t="str">
         <f>IF(SUM(D10:L10)&gt;0,"○","")</f>
         <v/>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
     </row>
     <row r="11" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="66" t="str">
+      <c r="C11" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="29">
+      <c r="D11" s="56"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="O11" s="5">
         <v>2</v>
       </c>
-      <c r="R11" s="77" t="str">
-        <f t="shared" ref="R11:R39" si="7">IF(SUM(D11:L11)&gt;0,"○","")</f>
-        <v/>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
+      <c r="P11" s="61" t="str">
+        <f t="shared" ref="P11:P39" si="5">IF(SUM(D11:L11)&gt;0,"○","")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
     </row>
     <row r="12" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="66" t="str">
+      <c r="C12" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="29">
+      <c r="D12" s="56"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="5">
+        <v>3</v>
+      </c>
+      <c r="P12" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>3</v>
-      </c>
-      <c r="R12" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
+        <v/>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="66" t="str">
+      <c r="C13" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="29">
+      <c r="D13" s="56"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="5">
+        <v>4</v>
+      </c>
+      <c r="P13" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>4</v>
-      </c>
-      <c r="R13" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
+        <v/>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
     </row>
     <row r="14" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>5</v>
       </c>
-      <c r="C14" s="66" t="str">
+      <c r="C14" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="29">
+      <c r="D14" s="56"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="5">
+        <v>5</v>
+      </c>
+      <c r="P14" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>5</v>
-      </c>
-      <c r="R14" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
+        <v/>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="66" t="str">
+      <c r="C15" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="29">
+      <c r="D15" s="56"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="5">
+        <v>6</v>
+      </c>
+      <c r="P15" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>6</v>
-      </c>
-      <c r="R15" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
+        <v/>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
     </row>
     <row r="16" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="66" t="str">
+      <c r="C16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="29">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="5">
+        <v>7</v>
+      </c>
+      <c r="P16" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="31">
+        <v/>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>8</v>
+      </c>
+      <c r="C17" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>8</v>
+      </c>
+      <c r="P17" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>9</v>
+      </c>
+      <c r="C18" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>9</v>
+      </c>
+      <c r="P18" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>10</v>
+      </c>
+      <c r="C19" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>10</v>
+      </c>
+      <c r="P19" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>11</v>
+      </c>
+      <c r="C20" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>11</v>
+      </c>
+      <c r="P20" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+    </row>
+    <row r="21" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>12</v>
+      </c>
+      <c r="C21" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>12</v>
+      </c>
+      <c r="P21" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+    </row>
+    <row r="22" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>13</v>
+      </c>
+      <c r="C22" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>13</v>
+      </c>
+      <c r="P22" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+    </row>
+    <row r="23" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>14</v>
+      </c>
+      <c r="C23" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>14</v>
+      </c>
+      <c r="P23" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+    </row>
+    <row r="24" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>15</v>
+      </c>
+      <c r="C24" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>15</v>
+      </c>
+      <c r="P24" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+    </row>
+    <row r="25" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>16</v>
+      </c>
+      <c r="C25" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>16</v>
+      </c>
+      <c r="P25" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+    </row>
+    <row r="26" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>17</v>
+      </c>
+      <c r="C26" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>17</v>
+      </c>
+      <c r="P26" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+    </row>
+    <row r="27" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>18</v>
+      </c>
+      <c r="C27" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>18</v>
+      </c>
+      <c r="P27" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+    </row>
+    <row r="28" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>19</v>
+      </c>
+      <c r="C28" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>19</v>
+      </c>
+      <c r="P28" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+    </row>
+    <row r="29" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>20</v>
+      </c>
+      <c r="C29" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>20</v>
+      </c>
+      <c r="P29" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+    </row>
+    <row r="30" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>21</v>
+      </c>
+      <c r="C30" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>21</v>
+      </c>
+      <c r="P30" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+    </row>
+    <row r="31" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>22</v>
+      </c>
+      <c r="C31" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>22</v>
+      </c>
+      <c r="P31" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+    </row>
+    <row r="32" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>23</v>
+      </c>
+      <c r="C32" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>23</v>
+      </c>
+      <c r="P32" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+    </row>
+    <row r="33" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>24</v>
+      </c>
+      <c r="C33" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>24</v>
+      </c>
+      <c r="P33" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+    </row>
+    <row r="34" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>25</v>
+      </c>
+      <c r="C34" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>25</v>
+      </c>
+      <c r="P34" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+    </row>
+    <row r="35" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>26</v>
+      </c>
+      <c r="C35" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>26</v>
+      </c>
+      <c r="P35" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+    </row>
+    <row r="36" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>27</v>
+      </c>
+      <c r="C36" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>27</v>
+      </c>
+      <c r="P36" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+    </row>
+    <row r="37" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>28</v>
+      </c>
+      <c r="C37" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>28</v>
+      </c>
+      <c r="P37" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+    </row>
+    <row r="38" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>29</v>
+      </c>
+      <c r="C38" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>29</v>
+      </c>
+      <c r="P38" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+    </row>
+    <row r="39" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>30</v>
+      </c>
+      <c r="C39" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>30</v>
+      </c>
+      <c r="P39" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+    </row>
+    <row r="40" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>31</v>
+      </c>
+      <c r="C40" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>31</v>
+      </c>
+      <c r="P40" s="61" t="str">
+        <f>IF(SUM(D40:L40)&gt;0,"○","")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="2:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="43">
+        <f>COUNTIF(C10:C40,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="51">
+        <f t="shared" ref="D41:J41" si="6">SUM(D10:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="9">
-        <v>7</v>
-      </c>
-      <c r="R16" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
+      <c r="F41" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="47">
+        <f>ROUNDDOWN(SUM(K10:K40)/60*1000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="48">
+        <f>ROUNDDOWN(SUM(L10:L40)/60*909,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="93">
+        <f>SUM(M10:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="93">
+        <f>SUM(N10:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="12"/>
+      <c r="P41" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="24">
+        <f>COUNTIF(Q10:Q40,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="24">
+        <f>COUNTIF(R10:R40,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12"/>
     </row>
-    <row r="17" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>8</v>
-      </c>
-      <c r="C17" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>8</v>
-      </c>
-      <c r="R17" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
+    <row r="42" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="98"/>
+      <c r="E43" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="33"/>
     </row>
-    <row r="18" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
-        <v>9</v>
-      </c>
-      <c r="C18" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>9</v>
-      </c>
-      <c r="R18" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
+    <row r="44" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="95"/>
+      <c r="C44" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="103"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="15"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="67"/>
     </row>
-    <row r="19" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
-        <v>10</v>
-      </c>
-      <c r="C19" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>10</v>
-      </c>
-      <c r="R19" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
+    <row r="45" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="95"/>
+      <c r="C45" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="103"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="15"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="67"/>
     </row>
-    <row r="20" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
-        <v>11</v>
-      </c>
-      <c r="C20" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>11</v>
-      </c>
-      <c r="R20" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-    </row>
-    <row r="21" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>12</v>
-      </c>
-      <c r="R21" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-    </row>
-    <row r="22" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
-        <v>13</v>
-      </c>
-      <c r="C22" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>13</v>
-      </c>
-      <c r="R22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-    </row>
-    <row r="23" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
-        <v>14</v>
-      </c>
-      <c r="C23" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>14</v>
-      </c>
-      <c r="R23" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-    </row>
-    <row r="24" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <v>15</v>
-      </c>
-      <c r="C24" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>15</v>
-      </c>
-      <c r="R24" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-    </row>
-    <row r="25" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>16</v>
-      </c>
-      <c r="C25" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>16</v>
-      </c>
-      <c r="R25" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-    </row>
-    <row r="26" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
-        <v>17</v>
-      </c>
-      <c r="C26" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>17</v>
-      </c>
-      <c r="R26" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-    </row>
-    <row r="27" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
-        <v>18</v>
-      </c>
-      <c r="C27" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>18</v>
-      </c>
-      <c r="R27" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-    </row>
-    <row r="28" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
-        <v>19</v>
-      </c>
-      <c r="C28" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>19</v>
-      </c>
-      <c r="R28" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-    </row>
-    <row r="29" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
-        <v>20</v>
-      </c>
-      <c r="C29" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>20</v>
-      </c>
-      <c r="R29" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-    </row>
-    <row r="30" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>21</v>
-      </c>
-      <c r="C30" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>21</v>
-      </c>
-      <c r="R30" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-    </row>
-    <row r="31" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
-        <v>22</v>
-      </c>
-      <c r="C31" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>22</v>
-      </c>
-      <c r="R31" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-    </row>
-    <row r="32" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
-        <v>23</v>
-      </c>
-      <c r="C32" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>23</v>
-      </c>
-      <c r="R32" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-    </row>
-    <row r="33" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
-        <v>24</v>
-      </c>
-      <c r="C33" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>24</v>
-      </c>
-      <c r="R33" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-    </row>
-    <row r="34" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
-        <v>25</v>
-      </c>
-      <c r="C34" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>25</v>
-      </c>
-      <c r="R34" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-    </row>
-    <row r="35" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
-        <v>26</v>
-      </c>
-      <c r="C35" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>26</v>
-      </c>
-      <c r="R35" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-    </row>
-    <row r="36" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
-        <v>27</v>
-      </c>
-      <c r="C36" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>27</v>
-      </c>
-      <c r="R36" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-    </row>
-    <row r="37" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
-        <v>28</v>
-      </c>
-      <c r="C37" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>28</v>
-      </c>
-      <c r="R37" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-    </row>
-    <row r="38" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
-        <v>29</v>
-      </c>
-      <c r="C38" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>29</v>
-      </c>
-      <c r="R38" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-    </row>
-    <row r="39" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
-        <v>30</v>
-      </c>
-      <c r="C39" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>30</v>
-      </c>
-      <c r="R39" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-    </row>
-    <row r="40" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
-        <v>31</v>
-      </c>
-      <c r="C40" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>31</v>
-      </c>
-      <c r="R40" s="77" t="str">
-        <f>IF(SUM(D40:L40)&gt;0,"○","")</f>
-        <v/>
-      </c>
-      <c r="S40" s="77"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="9"/>
-    </row>
-    <row r="41" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="56">
-        <f>COUNTIF(C10:C40,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="67">
-        <f t="shared" ref="D41:J41" si="8">SUM(D10:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="62">
-        <f>ROUNDDOWN(SUM(K10:K40)/60*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="63">
-        <f>ROUNDDOWN(SUM(L10:L40)/60*909,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="64">
-        <f>SUM(M10:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="64">
-        <f>SUM(N10:N40)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="64">
-        <f>SUM(O10:O40)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="64">
-        <f>SUM(P10:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="32">
-        <v>0</v>
-      </c>
-      <c r="S41" s="32">
-        <f>COUNTIF(S10:S40,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="32">
-        <f>COUNTIF(T10:T40,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="V41" s="16"/>
-    </row>
-    <row r="42" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="86"/>
-      <c r="C44" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="86"/>
-      <c r="C45" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="19"/>
-    </row>
-    <row r="46" spans="2:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="87"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="20"/>
+    <row r="46" spans="2:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="96"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="16"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="P8:S8"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="E5:F6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="R8:V8"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:I43"/>
@@ -5200,7 +5288,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.51181102362204722" bottom="0.31496062992125984" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="76" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
